--- a/Jogos_do_Dia/2023-06-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
   <si>
     <t>League</t>
   </si>
@@ -133,6 +133,9 @@
     <t>USA USL Championship</t>
   </si>
   <si>
+    <t>USA MLS</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -154,21 +157,30 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
     <t>Caucaia</t>
   </si>
   <si>
     <t>Nova Iguaçu</t>
   </si>
   <si>
+    <t>Iporá</t>
+  </si>
+  <si>
+    <t>Ceilândia</t>
+  </si>
+  <si>
     <t>Fluminense PI</t>
   </si>
   <si>
-    <t>Ceilândia</t>
-  </si>
-  <si>
-    <t>Iporá</t>
-  </si>
-  <si>
     <t>União Rondonópolis</t>
   </si>
   <si>
@@ -178,79 +190,88 @@
     <t>Patronato</t>
   </si>
   <si>
+    <t>Cordino</t>
+  </si>
+  <si>
+    <t>Ferroviária</t>
+  </si>
+  <si>
+    <t>Noroeste</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Bahia de Feira</t>
+  </si>
+  <si>
+    <t>Aimoré</t>
+  </si>
+  <si>
+    <t>Hercílio Luz</t>
+  </si>
+  <si>
+    <t>Camboriú</t>
+  </si>
+  <si>
+    <t>Patriotas Boyacá</t>
+  </si>
+  <si>
+    <t>Nacional de Patos</t>
+  </si>
+  <si>
+    <t>Hartford Athletic</t>
+  </si>
+  <si>
+    <t>Águia de Marabá</t>
+  </si>
+  <si>
+    <t>São Raimundo RR</t>
+  </si>
+  <si>
     <t>São Francisco</t>
   </si>
   <si>
-    <t>Cordino</t>
-  </si>
-  <si>
-    <t>Ferroviária</t>
-  </si>
-  <si>
-    <t>Nacional de Patos</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>Noroeste</t>
-  </si>
-  <si>
-    <t>Hercílio Luz</t>
-  </si>
-  <si>
-    <t>Patriotas Boyacá</t>
-  </si>
-  <si>
-    <t>Aimoré</t>
-  </si>
-  <si>
-    <t>Camboriú</t>
-  </si>
-  <si>
-    <t>Hartford Athletic</t>
-  </si>
-  <si>
-    <t>Águia de Marabá</t>
-  </si>
-  <si>
-    <t>São Raimundo RR</t>
-  </si>
-  <si>
     <t>Princesa Solimões</t>
   </si>
   <si>
     <t>Ferroviário</t>
   </si>
   <si>
+    <t>Potiguar Mossoró</t>
+  </si>
+  <si>
+    <t>Novo Hamburgo</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Portuguesa RJ</t>
+  </si>
+  <si>
+    <t>XV de Piracicaba</t>
+  </si>
+  <si>
+    <t>Operário MT</t>
+  </si>
+  <si>
     <t>Maringá</t>
   </si>
   <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Portuguesa RJ</t>
-  </si>
-  <si>
-    <t>XV de Piracicaba</t>
-  </si>
-  <si>
-    <t>Operário MT</t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>Potiguar Mossoró</t>
-  </si>
-  <si>
-    <t>Novo Hamburgo</t>
+    <t>El Paso Locomotive</t>
+  </si>
+  <si>
+    <t>San Diego Loyal</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
   </si>
   <si>
     <t>Parnahyba</t>
@@ -259,15 +280,15 @@
     <t>Vitória Futebol Clube (ES)</t>
   </si>
   <si>
+    <t>Brasiliense</t>
+  </si>
+  <si>
+    <t>CEOV Operário</t>
+  </si>
+  <si>
     <t>Uniclinic</t>
   </si>
   <si>
-    <t>CEOV Operário</t>
-  </si>
-  <si>
-    <t>Brasiliense</t>
-  </si>
-  <si>
     <t>Real Ariquemes</t>
   </si>
   <si>
@@ -277,79 +298,88 @@
     <t>Almirante Brown</t>
   </si>
   <si>
+    <t>Tocantinópolis</t>
+  </si>
+  <si>
+    <t>Cascavel CR</t>
+  </si>
+  <si>
+    <t>Santo André</t>
+  </si>
+  <si>
+    <t>Resende</t>
+  </si>
+  <si>
+    <t>Cruzeiro Arapiraca</t>
+  </si>
+  <si>
+    <t>Concórdia AC</t>
+  </si>
+  <si>
+    <t>Brasil de Pelotas</t>
+  </si>
+  <si>
+    <t>Caxias</t>
+  </si>
+  <si>
+    <t>Llaneros</t>
+  </si>
+  <si>
+    <t>Pacajus</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>Trem</t>
+  </si>
+  <si>
+    <t>Humaitá</t>
+  </si>
+  <si>
     <t>Nacional AM</t>
   </si>
   <si>
-    <t>Tocantinópolis</t>
-  </si>
-  <si>
-    <t>Cascavel CR</t>
-  </si>
-  <si>
-    <t>Pacajus</t>
-  </si>
-  <si>
-    <t>Resende</t>
-  </si>
-  <si>
-    <t>Cruzeiro Arapiraca</t>
-  </si>
-  <si>
-    <t>Santo André</t>
-  </si>
-  <si>
-    <t>Brasil de Pelotas</t>
-  </si>
-  <si>
-    <t>Llaneros</t>
-  </si>
-  <si>
-    <t>Concórdia AC</t>
-  </si>
-  <si>
-    <t>Caxias</t>
-  </si>
-  <si>
-    <t>Detroit City FC</t>
-  </si>
-  <si>
-    <t>Trem</t>
-  </si>
-  <si>
-    <t>Humaitá</t>
-  </si>
-  <si>
     <t>Tuna Luso</t>
   </si>
   <si>
     <t>Maranhão</t>
   </si>
   <si>
+    <t>Campinense</t>
+  </si>
+  <si>
+    <t>Independiente FSJ</t>
+  </si>
+  <si>
+    <t>Retrô</t>
+  </si>
+  <si>
+    <t>Atlético Alagoinhas</t>
+  </si>
+  <si>
+    <t>Democrata GV</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>CRAC</t>
+  </si>
+  <si>
     <t>Inter de Limeira</t>
   </si>
   <si>
-    <t>Atlético Alagoinhas</t>
-  </si>
-  <si>
-    <t>Democrata GV</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>CRAC</t>
-  </si>
-  <si>
-    <t>Retrô</t>
-  </si>
-  <si>
     <t>Globo</t>
   </si>
   <si>
-    <t>Campinense</t>
-  </si>
-  <si>
-    <t>Independiente FSJ</t>
+    <t>Las Vegas Lights</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Houston Dynamo</t>
   </si>
 </sst>
 </file>
@@ -711,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,25 +862,25 @@
         <v>45091</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -865,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -939,64 +969,64 @@
         <v>45091</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W3">
         <v>0.5</v>
@@ -1046,79 +1076,79 @@
         <v>45091</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H4">
+        <v>3.14</v>
+      </c>
+      <c r="I4">
+        <v>2.9</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>7.5</v>
+      </c>
+      <c r="L4">
+        <v>1.41</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>2.19</v>
+      </c>
+      <c r="O4">
+        <v>1.57</v>
+      </c>
+      <c r="P4">
+        <v>1.46</v>
+      </c>
+      <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4">
+        <v>1.87</v>
+      </c>
+      <c r="S4">
+        <v>1.89</v>
+      </c>
+      <c r="T4">
+        <v>1.3</v>
+      </c>
+      <c r="U4">
+        <v>1.3</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>3.5</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2.25</v>
-      </c>
-      <c r="O4">
-        <v>1.62</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1.67</v>
-      </c>
       <c r="X4">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y4">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="Z4">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="AA4">
-        <v>3.39</v>
+        <v>4.18</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1153,64 +1183,64 @@
         <v>45091</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="W5">
         <v>2.5</v>
@@ -1260,79 +1290,79 @@
         <v>45091</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="X6">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y6">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="Z6">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="AA6">
-        <v>4.18</v>
+        <v>3.39</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1367,64 +1397,64 @@
         <v>45091</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G7">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="H7">
-        <v>4.6</v>
+        <v>6.45</v>
       </c>
       <c r="I7">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O7">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W7">
         <v>2.33</v>
@@ -1474,64 +1504,64 @@
         <v>45091</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="N8">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="O8">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1564,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1581,16 +1611,16 @@
         <v>45091</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G9">
         <v>2.02</v>
@@ -1614,10 +1644,10 @@
         <v>2.5</v>
       </c>
       <c r="N9">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="O9">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P9">
         <v>1.5</v>
@@ -1656,28 +1686,28 @@
         <v>2.79</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1688,79 +1718,79 @@
         <v>45091</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X10">
-        <v>1.33</v>
+        <v>0.25</v>
       </c>
       <c r="Y10">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="Z10">
-        <v>0.97</v>
+        <v>1.49</v>
       </c>
       <c r="AA10">
-        <v>2.89</v>
+        <v>3.59</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1795,79 +1825,79 @@
         <v>45091</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4.32</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="O11">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W11">
+        <v>0.75</v>
+      </c>
+      <c r="X11">
         <v>1.33</v>
       </c>
-      <c r="X11">
-        <v>0.25</v>
-      </c>
       <c r="Y11">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="Z11">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="AA11">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1885,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1902,79 +1932,79 @@
         <v>45091</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>2.31</v>
+        <v>1.4</v>
       </c>
       <c r="Z12">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AA12">
-        <v>3.65</v>
+        <v>2.78</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2009,25 +2039,25 @@
         <v>45091</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2042,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2069,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Y13">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="Z13">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AA13">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2116,25 +2146,25 @@
         <v>45091</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G14">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I14">
-        <v>3.25</v>
+        <v>5.12</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2143,52 +2173,52 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O14">
         <v>1.7</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W14">
         <v>2</v>
       </c>
       <c r="X14">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Y14">
-        <v>1.93</v>
+        <v>1.38</v>
       </c>
       <c r="Z14">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AA14">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2206,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2223,25 +2253,25 @@
         <v>45091</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2256,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2283,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="Z15">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AA15">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2313,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2330,79 +2360,79 @@
         <v>45091</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="I16">
-        <v>2.6</v>
+        <v>4.12</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="Z16">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AA16">
-        <v>2.78</v>
+        <v>3.36</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2420,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2437,79 +2467,79 @@
         <v>45091</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Y17">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="Z17">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AA17">
-        <v>3.36</v>
+        <v>2.97</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2527,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2544,16 +2574,16 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2651,25 +2681,25 @@
         <v>45091</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2678,52 +2708,52 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W19">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y19">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="Z19">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AA19">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2752,85 +2782,85 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>45091</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="X20">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="Y20">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="Z20">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AA20">
-        <v>2.97</v>
+        <v>2.61</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2842,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2859,85 +2889,85 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
         <v>45091</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G21">
-        <v>2.16</v>
+        <v>1.23</v>
       </c>
       <c r="H21">
-        <v>2.97</v>
+        <v>5.6</v>
       </c>
       <c r="I21">
-        <v>2.56</v>
+        <v>11.2</v>
       </c>
       <c r="J21">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L21">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M21">
-        <v>3.63</v>
+        <v>3.74</v>
       </c>
       <c r="N21">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="P21">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="Q21">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="R21">
+        <v>2.23</v>
+      </c>
+      <c r="S21">
+        <v>1.55</v>
+      </c>
+      <c r="T21">
+        <v>1.01</v>
+      </c>
+      <c r="U21">
+        <v>1.12</v>
+      </c>
+      <c r="V21">
+        <v>3.52</v>
+      </c>
+      <c r="W21">
+        <v>2.5</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0.99</v>
+      </c>
+      <c r="Z21">
         <v>1.65</v>
       </c>
-      <c r="S21">
-        <v>2.1</v>
-      </c>
-      <c r="T21">
-        <v>1.4</v>
-      </c>
-      <c r="U21">
-        <v>1.27</v>
-      </c>
-      <c r="V21">
-        <v>1.55</v>
-      </c>
-      <c r="W21">
-        <v>0.83</v>
-      </c>
-      <c r="X21">
-        <v>0.71</v>
-      </c>
-      <c r="Y21">
-        <v>1.42</v>
-      </c>
-      <c r="Z21">
-        <v>1.19</v>
-      </c>
       <c r="AA21">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2972,25 +3002,25 @@
         <v>45091</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3005,46 +3035,46 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y22">
-        <v>0.99</v>
+        <v>1.79</v>
       </c>
       <c r="Z22">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AA22">
-        <v>2.64</v>
+        <v>3.14</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3079,25 +3109,25 @@
         <v>45091</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3112,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3124,34 +3154,34 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W23">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="X23">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="Y23">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="Z23">
-        <v>1.35</v>
+        <v>0.97</v>
       </c>
       <c r="AA23">
-        <v>3.14</v>
+        <v>2.89</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3186,64 +3216,64 @@
         <v>45091</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>2.33</v>
@@ -3293,64 +3323,64 @@
         <v>45091</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="W25">
         <v>3</v>
@@ -3383,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3400,25 +3430,25 @@
         <v>45091</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3427,52 +3457,52 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W26">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Y26">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="Z26">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="AA26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3490,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3507,79 +3537,79 @@
         <v>45091</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y27">
-        <v>2.13</v>
+        <v>1.72</v>
       </c>
       <c r="Z27">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AA27">
-        <v>3.62</v>
+        <v>3.09</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3597,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3614,25 +3644,25 @@
         <v>45091</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3641,52 +3671,52 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="Y28">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="Z28">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="AA28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3704,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3721,25 +3751,25 @@
         <v>45091</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3748,52 +3778,52 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="W29">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="Z29">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AA29">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3811,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -3828,16 +3858,16 @@
         <v>45091</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3888,19 +3918,19 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="Y30">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="Z30">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AA30">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -3935,79 +3965,79 @@
         <v>45091</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="Y31">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="Z31">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AA31">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4025,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -4042,16 +4072,16 @@
         <v>45091</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4102,19 +4132,19 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Y32">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="Z32">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AA32">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4149,79 +4179,79 @@
         <v>45091</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="X33">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Y33">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="Z33">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="AA33">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4242,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4256,25 +4286,25 @@
         <v>45091</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4289,70 +4319,391 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="W34">
+        <v>2.5</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1.63</v>
+      </c>
+      <c r="Z34">
+        <v>1.09</v>
+      </c>
+      <c r="AA34">
+        <v>2.72</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>8.5</v>
+      </c>
+      <c r="J35">
+        <v>1.03</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>1.18</v>
+      </c>
+      <c r="M35">
+        <v>4.5</v>
+      </c>
+      <c r="N35">
+        <v>1.62</v>
+      </c>
+      <c r="O35">
+        <v>2.2</v>
+      </c>
+      <c r="P35">
+        <v>1.29</v>
+      </c>
+      <c r="Q35">
+        <v>3.5</v>
+      </c>
+      <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
+        <v>1.8</v>
+      </c>
+      <c r="T35">
+        <v>1.03</v>
+      </c>
+      <c r="U35">
+        <v>1.11</v>
+      </c>
+      <c r="V35">
+        <v>3.25</v>
+      </c>
+      <c r="W35">
+        <v>1.5</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1.62</v>
+      </c>
+      <c r="Z35">
+        <v>1.36</v>
+      </c>
+      <c r="AA35">
+        <v>2.98</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>1.78</v>
+      </c>
+      <c r="AH35">
+        <v>2.2</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36">
+        <v>2.1</v>
+      </c>
+      <c r="H36">
+        <v>3.6</v>
+      </c>
+      <c r="I36">
+        <v>3.1</v>
+      </c>
+      <c r="J36">
+        <v>1.05</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>1.25</v>
+      </c>
+      <c r="M36">
+        <v>3.6</v>
+      </c>
+      <c r="N36">
+        <v>1.83</v>
+      </c>
+      <c r="O36">
+        <v>1.9</v>
+      </c>
+      <c r="P36">
+        <v>1.36</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>1.68</v>
+      </c>
+      <c r="S36">
+        <v>2.1</v>
+      </c>
+      <c r="T36">
+        <v>1.28</v>
+      </c>
+      <c r="U36">
+        <v>1.22</v>
+      </c>
+      <c r="V36">
+        <v>1.68</v>
+      </c>
+      <c r="W36">
+        <v>1.86</v>
+      </c>
+      <c r="X36">
+        <v>1.67</v>
+      </c>
+      <c r="Y36">
+        <v>1.51</v>
+      </c>
+      <c r="Z36">
+        <v>1.81</v>
+      </c>
+      <c r="AA36">
+        <v>3.32</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45091</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37">
+        <v>1.33</v>
+      </c>
+      <c r="H37">
+        <v>4.75</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>1.03</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>1.22</v>
+      </c>
+      <c r="M37">
+        <v>4.2</v>
+      </c>
+      <c r="N37">
+        <v>1.61</v>
+      </c>
+      <c r="O37">
+        <v>2.1</v>
+      </c>
+      <c r="P37">
+        <v>1.29</v>
+      </c>
+      <c r="Q37">
+        <v>3.5</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>1.07</v>
+      </c>
+      <c r="U37">
+        <v>1.15</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>2.43</v>
+      </c>
+      <c r="X37">
         <v>0.25</v>
       </c>
-      <c r="X34">
-        <v>0.67</v>
-      </c>
-      <c r="Y34">
-        <v>1.72</v>
-      </c>
-      <c r="Z34">
-        <v>1.37</v>
-      </c>
-      <c r="AA34">
-        <v>3.09</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
+      <c r="Y37">
+        <v>2.06</v>
+      </c>
+      <c r="Z37">
+        <v>1.36</v>
+      </c>
+      <c r="AA37">
+        <v>3.42</v>
+      </c>
+      <c r="AB37">
+        <v>1.23</v>
+      </c>
+      <c r="AC37">
+        <v>11</v>
+      </c>
+      <c r="AD37">
+        <v>5.1</v>
+      </c>
+      <c r="AE37">
+        <v>1.13</v>
+      </c>
+      <c r="AF37">
+        <v>1.33</v>
+      </c>
+      <c r="AG37">
+        <v>1.68</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>League</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Colombia Categoria Primera B</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
@@ -172,15 +169,15 @@
     <t>Nova Iguaçu</t>
   </si>
   <si>
+    <t>Fluminense PI</t>
+  </si>
+  <si>
+    <t>Ceilândia</t>
+  </si>
+  <si>
     <t>Iporá</t>
   </si>
   <si>
-    <t>Ceilândia</t>
-  </si>
-  <si>
-    <t>Fluminense PI</t>
-  </si>
-  <si>
     <t>União Rondonópolis</t>
   </si>
   <si>
@@ -193,78 +190,75 @@
     <t>Cordino</t>
   </si>
   <si>
+    <t>Bahia de Feira</t>
+  </si>
+  <si>
     <t>Ferroviária</t>
   </si>
   <si>
     <t>Noroeste</t>
   </si>
   <si>
+    <t>Aimoré</t>
+  </si>
+  <si>
+    <t>Camboriú</t>
+  </si>
+  <si>
+    <t>Hercílio Luz</t>
+  </si>
+  <si>
     <t>Athletic Club</t>
   </si>
   <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>Aimoré</t>
-  </si>
-  <si>
-    <t>Hercílio Luz</t>
-  </si>
-  <si>
-    <t>Camboriú</t>
-  </si>
-  <si>
-    <t>Patriotas Boyacá</t>
+    <t>São Francisco</t>
+  </si>
+  <si>
+    <t>Maringá</t>
+  </si>
+  <si>
+    <t>Princesa Solimões</t>
+  </si>
+  <si>
+    <t>Operário MT</t>
+  </si>
+  <si>
+    <t>Hartford Athletic</t>
+  </si>
+  <si>
+    <t>Águia de Marabá</t>
+  </si>
+  <si>
+    <t>Novo Hamburgo</t>
+  </si>
+  <si>
+    <t>São Raimundo RR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Potiguar Mossoró</t>
+  </si>
+  <si>
+    <t>XV de Piracicaba</t>
+  </si>
+  <si>
+    <t>Portuguesa RJ</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
   </si>
   <si>
     <t>Nacional de Patos</t>
   </si>
   <si>
-    <t>Hartford Athletic</t>
-  </si>
-  <si>
-    <t>Águia de Marabá</t>
-  </si>
-  <si>
-    <t>São Raimundo RR</t>
-  </si>
-  <si>
-    <t>São Francisco</t>
-  </si>
-  <si>
-    <t>Princesa Solimões</t>
-  </si>
-  <si>
     <t>Ferroviário</t>
   </si>
   <si>
-    <t>Potiguar Mossoró</t>
-  </si>
-  <si>
-    <t>Novo Hamburgo</t>
-  </si>
-  <si>
-    <t>ASA</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Portuguesa RJ</t>
-  </si>
-  <si>
-    <t>XV de Piracicaba</t>
-  </si>
-  <si>
-    <t>Operário MT</t>
-  </si>
-  <si>
-    <t>Maringá</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
     <t>El Paso Locomotive</t>
   </si>
   <si>
@@ -280,15 +274,15 @@
     <t>Vitória Futebol Clube (ES)</t>
   </si>
   <si>
+    <t>Uniclinic</t>
+  </si>
+  <si>
+    <t>CEOV Operário</t>
+  </si>
+  <si>
     <t>Brasiliense</t>
   </si>
   <si>
-    <t>CEOV Operário</t>
-  </si>
-  <si>
-    <t>Uniclinic</t>
-  </si>
-  <si>
     <t>Real Ariquemes</t>
   </si>
   <si>
@@ -301,76 +295,73 @@
     <t>Tocantinópolis</t>
   </si>
   <si>
+    <t>Cruzeiro Arapiraca</t>
+  </si>
+  <si>
     <t>Cascavel CR</t>
   </si>
   <si>
     <t>Santo André</t>
   </si>
   <si>
+    <t>Concórdia AC</t>
+  </si>
+  <si>
+    <t>Caxias</t>
+  </si>
+  <si>
+    <t>Brasil de Pelotas</t>
+  </si>
+  <si>
     <t>Resende</t>
   </si>
   <si>
-    <t>Cruzeiro Arapiraca</t>
-  </si>
-  <si>
-    <t>Concórdia AC</t>
-  </si>
-  <si>
-    <t>Brasil de Pelotas</t>
-  </si>
-  <si>
-    <t>Caxias</t>
-  </si>
-  <si>
-    <t>Llaneros</t>
+    <t>Nacional AM</t>
+  </si>
+  <si>
+    <t>Inter de Limeira</t>
+  </si>
+  <si>
+    <t>Tuna Luso</t>
+  </si>
+  <si>
+    <t>CRAC</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>Trem</t>
+  </si>
+  <si>
+    <t>Independiente FSJ</t>
+  </si>
+  <si>
+    <t>Humaitá</t>
+  </si>
+  <si>
+    <t>Retrô</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Campinense</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Democrata GV</t>
+  </si>
+  <si>
+    <t>Atlético Alagoinhas</t>
   </si>
   <si>
     <t>Pacajus</t>
   </si>
   <si>
-    <t>Detroit City FC</t>
-  </si>
-  <si>
-    <t>Trem</t>
-  </si>
-  <si>
-    <t>Humaitá</t>
-  </si>
-  <si>
-    <t>Nacional AM</t>
-  </si>
-  <si>
-    <t>Tuna Luso</t>
-  </si>
-  <si>
     <t>Maranhão</t>
-  </si>
-  <si>
-    <t>Campinense</t>
-  </si>
-  <si>
-    <t>Independiente FSJ</t>
-  </si>
-  <si>
-    <t>Retrô</t>
-  </si>
-  <si>
-    <t>Atlético Alagoinhas</t>
-  </si>
-  <si>
-    <t>Democrata GV</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>CRAC</t>
-  </si>
-  <si>
-    <t>Inter de Limeira</t>
-  </si>
-  <si>
-    <t>Globo</t>
   </si>
   <si>
     <t>Las Vegas Lights</t>
@@ -741,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,16 +853,16 @@
         <v>45091</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2">
         <v>2.2</v>
@@ -883,16 +874,16 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N2">
         <v>2.02</v>
@@ -901,25 +892,25 @@
         <v>1.73</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W2">
         <v>0.75</v>
@@ -952,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -969,25 +960,25 @@
         <v>45091</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H3">
+        <v>3.15</v>
+      </c>
+      <c r="I3">
         <v>3.1</v>
-      </c>
-      <c r="I3">
-        <v>3.31</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1002,10 +993,10 @@
         <v>2.4</v>
       </c>
       <c r="N3">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="O3">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P3">
         <v>1.5</v>
@@ -1014,10 +1005,10 @@
         <v>2.41</v>
       </c>
       <c r="R3">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="T3">
         <v>1.24</v>
@@ -1059,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1076,28 +1067,28 @@
         <v>45091</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H4">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
         <v>7.5</v>
@@ -1109,10 +1100,10 @@
         <v>2.7</v>
       </c>
       <c r="N4">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P4">
         <v>1.46</v>
@@ -1121,10 +1112,10 @@
         <v>2.5</v>
       </c>
       <c r="R4">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S4">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T4">
         <v>1.3</v>
@@ -1133,22 +1124,22 @@
         <v>1.3</v>
       </c>
       <c r="V4">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y4">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="Z4">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="AA4">
-        <v>4.18</v>
+        <v>3.39</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1183,25 +1174,25 @@
         <v>45091</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1216,10 +1207,10 @@
         <v>2.91</v>
       </c>
       <c r="N5">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="O5">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P5">
         <v>1.42</v>
@@ -1228,10 +1219,10 @@
         <v>2.59</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S5">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="T5">
         <v>1.11</v>
@@ -1290,28 +1281,28 @@
         <v>45091</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J6">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
         <v>7.5</v>
@@ -1323,10 +1314,10 @@
         <v>2.7</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="O6">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P6">
         <v>1.46</v>
@@ -1335,10 +1326,10 @@
         <v>2.5</v>
       </c>
       <c r="R6">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S6">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T6">
         <v>1.3</v>
@@ -1347,22 +1338,22 @@
         <v>1.3</v>
       </c>
       <c r="V6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y6">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="Z6">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="AA6">
-        <v>3.39</v>
+        <v>4.18</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1397,25 +1388,25 @@
         <v>45091</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="H7">
-        <v>6.45</v>
+        <v>3.8</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <v>1.03</v>
@@ -1442,10 +1433,10 @@
         <v>2.7</v>
       </c>
       <c r="R7">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="S7">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T7">
         <v>1.08</v>
@@ -1504,25 +1495,25 @@
         <v>45091</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="J8">
         <v>1.02</v>
@@ -1549,10 +1540,10 @@
         <v>3.6</v>
       </c>
       <c r="R8">
+        <v>2.09</v>
+      </c>
+      <c r="S8">
         <v>1.71</v>
-      </c>
-      <c r="S8">
-        <v>2.08</v>
       </c>
       <c r="T8">
         <v>3.8</v>
@@ -1611,25 +1602,25 @@
         <v>45091</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H9">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="I9">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J9">
         <v>1.09</v>
@@ -1644,10 +1635,10 @@
         <v>2.5</v>
       </c>
       <c r="N9">
-        <v>2.48</v>
+        <v>2.39</v>
       </c>
       <c r="O9">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P9">
         <v>1.5</v>
@@ -1718,25 +1709,25 @@
         <v>45091</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H10">
-        <v>3.13</v>
+        <v>2.85</v>
       </c>
       <c r="I10">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="J10">
         <v>1.05</v>
@@ -1751,10 +1742,10 @@
         <v>2.8</v>
       </c>
       <c r="N10">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="O10">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P10">
         <v>1.44</v>
@@ -1825,79 +1816,79 @@
         <v>45091</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="H11">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="J11">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="K11">
-        <v>6.35</v>
+        <v>9.25</v>
       </c>
       <c r="L11">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="M11">
-        <v>2.49</v>
+        <v>3.04</v>
       </c>
       <c r="N11">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="O11">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="P11">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="Q11">
-        <v>2.32</v>
+        <v>2.69</v>
       </c>
       <c r="R11">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="S11">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="T11">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="U11">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="V11">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="W11">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>1.33</v>
       </c>
       <c r="Y11">
-        <v>2.31</v>
+        <v>1.38</v>
       </c>
       <c r="Z11">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AA11">
-        <v>3.65</v>
+        <v>2.64</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1915,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1932,79 +1923,79 @@
         <v>45091</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="I12">
-        <v>2.15</v>
+        <v>4.02</v>
       </c>
       <c r="J12">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>6.35</v>
       </c>
       <c r="L12">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M12">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="N12">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="O12">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="P12">
+        <v>1.54</v>
+      </c>
+      <c r="Q12">
+        <v>2.32</v>
+      </c>
+      <c r="R12">
+        <v>2.32</v>
+      </c>
+      <c r="S12">
         <v>1.51</v>
       </c>
-      <c r="Q12">
-        <v>2.39</v>
-      </c>
-      <c r="R12">
-        <v>1.98</v>
-      </c>
-      <c r="S12">
-        <v>1.79</v>
-      </c>
       <c r="T12">
-        <v>1.54</v>
+        <v>1.15</v>
       </c>
       <c r="U12">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="V12">
-        <v>1.32</v>
+        <v>1.93</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y12">
-        <v>1.4</v>
+        <v>2.31</v>
       </c>
       <c r="Z12">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AA12">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2022,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2039,79 +2030,79 @@
         <v>45091</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G13">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N13">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="O13">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="Z13">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AA13">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2146,79 +2137,79 @@
         <v>45091</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14">
-        <v>1.63</v>
+        <v>2.23</v>
       </c>
       <c r="H14">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="I14">
-        <v>5.12</v>
+        <v>3.15</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L14">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="M14">
-        <v>3.04</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
-        <v>1.98</v>
+        <v>2.72</v>
       </c>
       <c r="O14">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="P14">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="Q14">
-        <v>2.69</v>
+        <v>2.19</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="T14">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="U14">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="V14">
-        <v>2.16</v>
+        <v>1.54</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="Z14">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AA14">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2236,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2253,79 +2244,79 @@
         <v>45091</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15">
-        <v>2.27</v>
+        <v>2.68</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I15">
-        <v>3.27</v>
+        <v>2.54</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N15">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="O15">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Y15">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="Z15">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AA15">
-        <v>2.62</v>
+        <v>2.97</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2343,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2360,25 +2351,25 @@
         <v>45091</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H16">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>4.12</v>
+        <v>3.8</v>
       </c>
       <c r="J16">
         <v>1.07</v>
@@ -2387,10 +2378,10 @@
         <v>6.35</v>
       </c>
       <c r="L16">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M16">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
         <v>2.64</v>
@@ -2467,64 +2458,64 @@
         <v>45091</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G17">
-        <v>2.97</v>
+        <v>1.67</v>
       </c>
       <c r="H17">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="I17">
-        <v>2.48</v>
+        <v>4.33</v>
       </c>
       <c r="J17">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K17">
-        <v>6.15</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="M17">
-        <v>2.44</v>
+        <v>2.95</v>
       </c>
       <c r="N17">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="O17">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="P17">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="Q17">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="R17">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="S17">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="U17">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="V17">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="W17">
         <v>2</v>
@@ -2533,13 +2524,13 @@
         <v>1.25</v>
       </c>
       <c r="Y17">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="Z17">
         <v>1.42</v>
       </c>
       <c r="AA17">
-        <v>2.97</v>
+        <v>3.35</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2557,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2568,7 +2559,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>45091</v>
@@ -2577,76 +2568,76 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>6.97</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W18">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="X18">
-        <v>2.05</v>
+        <v>1.33</v>
       </c>
       <c r="Y18">
-        <v>1.35</v>
+        <v>1.92</v>
       </c>
       <c r="Z18">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AA18">
-        <v>2.48</v>
+        <v>2.89</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2681,79 +2672,79 @@
         <v>45091</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G19">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="H19">
-        <v>3.16</v>
+        <v>2.87</v>
       </c>
       <c r="I19">
-        <v>3.01</v>
+        <v>3.92</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L19">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M19">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="P19">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q19">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="R19">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="T19">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="U19">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="V19">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="W19">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="X19">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Y19">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="Z19">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AA19">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2774,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2782,85 +2773,85 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>45091</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20">
-        <v>2.35</v>
+        <v>1.48</v>
       </c>
       <c r="H20">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I20">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="J20">
         <v>1.04</v>
       </c>
       <c r="K20">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="L20">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M20">
-        <v>3.63</v>
+        <v>3.3</v>
       </c>
       <c r="N20">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P20">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="Q20">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="R20">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="U20">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="V20">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.83</v>
+        <v>2.33</v>
       </c>
       <c r="X20">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="Y20">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Z20">
-        <v>1.19</v>
+        <v>1.49</v>
       </c>
       <c r="AA20">
-        <v>2.61</v>
+        <v>2.87</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2872,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2895,79 +2886,79 @@
         <v>45091</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G21">
-        <v>1.23</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="I21">
-        <v>11.2</v>
+        <v>2.2</v>
       </c>
       <c r="J21">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>1.55</v>
       </c>
-      <c r="T21">
-        <v>1.01</v>
-      </c>
       <c r="U21">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="V21">
-        <v>3.52</v>
+        <v>1.3</v>
       </c>
       <c r="W21">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Y21">
-        <v>0.99</v>
+        <v>1.31</v>
       </c>
       <c r="Z21">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="AA21">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2996,109 +2987,109 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>45091</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22">
-        <v>1.34</v>
+        <v>2.35</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="I22">
-        <v>7.55</v>
+        <v>2.8</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="N22">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="O22">
-        <v>2.35</v>
+        <v>1.94</v>
       </c>
       <c r="P22">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Q22">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R22">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="S22">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T22">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="U22">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="W22">
-        <v>2.33</v>
+        <v>0.83</v>
       </c>
       <c r="X22">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="Y22">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="Z22">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AA22">
-        <v>3.14</v>
+        <v>2.61</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3109,79 +3100,79 @@
         <v>45091</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23">
-        <v>7.7</v>
+        <v>1.27</v>
       </c>
       <c r="H23">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="I23">
-        <v>1.41</v>
+        <v>8.5</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="O23">
+        <v>1.99</v>
+      </c>
+      <c r="P23">
+        <v>1.32</v>
+      </c>
+      <c r="Q23">
+        <v>3.1</v>
+      </c>
+      <c r="R23">
+        <v>2.16</v>
+      </c>
+      <c r="S23">
+        <v>1.59</v>
+      </c>
+      <c r="T23">
+        <v>1.01</v>
+      </c>
+      <c r="U23">
+        <v>1.12</v>
+      </c>
+      <c r="V23">
+        <v>3.52</v>
+      </c>
+      <c r="W23">
+        <v>2.5</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0.99</v>
+      </c>
+      <c r="Z23">
         <v>1.65</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>1.94</v>
-      </c>
-      <c r="S23">
-        <v>1.73</v>
-      </c>
-      <c r="T23">
-        <v>2.7</v>
-      </c>
-      <c r="U23">
-        <v>1.13</v>
-      </c>
-      <c r="V23">
-        <v>1.04</v>
-      </c>
-      <c r="W23">
-        <v>1.5</v>
-      </c>
-      <c r="X23">
-        <v>1.33</v>
-      </c>
-      <c r="Y23">
-        <v>1.92</v>
-      </c>
-      <c r="Z23">
-        <v>0.97</v>
-      </c>
       <c r="AA23">
-        <v>2.89</v>
+        <v>2.64</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3216,79 +3207,79 @@
         <v>45091</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G24">
-        <v>1.71</v>
+        <v>3.05</v>
       </c>
       <c r="H24">
-        <v>3.62</v>
+        <v>2.8</v>
       </c>
       <c r="I24">
-        <v>4.6</v>
+        <v>2.27</v>
       </c>
       <c r="J24">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K24">
-        <v>10.75</v>
+        <v>6.25</v>
       </c>
       <c r="L24">
+        <v>1.48</v>
+      </c>
+      <c r="M24">
+        <v>2.4</v>
+      </c>
+      <c r="N24">
+        <v>2.32</v>
+      </c>
+      <c r="O24">
+        <v>1.51</v>
+      </c>
+      <c r="P24">
+        <v>1.01</v>
+      </c>
+      <c r="Q24">
+        <v>1.52</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.73</v>
+      </c>
+      <c r="T24">
+        <v>1.59</v>
+      </c>
+      <c r="U24">
+        <v>1.32</v>
+      </c>
+      <c r="V24">
         <v>1.28</v>
       </c>
-      <c r="M24">
-        <v>3.3</v>
-      </c>
-      <c r="N24">
-        <v>1.9</v>
-      </c>
-      <c r="O24">
-        <v>1.77</v>
-      </c>
-      <c r="P24">
-        <v>1.39</v>
-      </c>
-      <c r="Q24">
-        <v>2.77</v>
-      </c>
-      <c r="R24">
-        <v>1.8</v>
-      </c>
-      <c r="S24">
-        <v>1.86</v>
-      </c>
-      <c r="T24">
-        <v>1.17</v>
-      </c>
-      <c r="U24">
-        <v>1.26</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
       <c r="W24">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="X24">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="Y24">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="Z24">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AA24">
-        <v>2.87</v>
+        <v>3.09</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3306,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3323,97 +3314,97 @@
         <v>45091</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G25">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="H25">
-        <v>3.62</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>4.99</v>
+        <v>5.5</v>
       </c>
       <c r="J25">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K25">
-        <v>8.75</v>
+        <v>14</v>
       </c>
       <c r="L25">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="M25">
-        <v>3.05</v>
+        <v>4.45</v>
       </c>
       <c r="N25">
+        <v>1.61</v>
+      </c>
+      <c r="O25">
+        <v>2.18</v>
+      </c>
+      <c r="P25">
+        <v>1.25</v>
+      </c>
+      <c r="Q25">
+        <v>3.5</v>
+      </c>
+      <c r="R25">
+        <v>1.76</v>
+      </c>
+      <c r="S25">
+        <v>1.91</v>
+      </c>
+      <c r="T25">
+        <v>1.05</v>
+      </c>
+      <c r="U25">
+        <v>1.13</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>2.33</v>
+      </c>
+      <c r="X25">
+        <v>0.75</v>
+      </c>
+      <c r="Y25">
+        <v>1.79</v>
+      </c>
+      <c r="Z25">
+        <v>1.35</v>
+      </c>
+      <c r="AA25">
+        <v>3.14</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>2.1</v>
-      </c>
-      <c r="O25">
-        <v>1.62</v>
-      </c>
-      <c r="P25">
-        <v>1.42</v>
-      </c>
-      <c r="Q25">
-        <v>2.66</v>
-      </c>
-      <c r="R25">
-        <v>1.98</v>
-      </c>
-      <c r="S25">
-        <v>1.79</v>
-      </c>
-      <c r="T25">
-        <v>1.13</v>
-      </c>
-      <c r="U25">
-        <v>1.24</v>
-      </c>
-      <c r="V25">
-        <v>2.11</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="X25">
-        <v>0.67</v>
-      </c>
-      <c r="Y25">
-        <v>2.1</v>
-      </c>
-      <c r="Z25">
-        <v>2.31</v>
-      </c>
-      <c r="AA25">
-        <v>4.41</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>2</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3430,31 +3421,31 @@
         <v>45091</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="H26">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="I26">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L26">
         <v>1.36</v>
@@ -3463,46 +3454,46 @@
         <v>2.79</v>
       </c>
       <c r="N26">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O26">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P26">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q26">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S26">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T26">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="U26">
         <v>1.31</v>
       </c>
       <c r="V26">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="Y26">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="Z26">
-        <v>1.81</v>
+        <v>1.34</v>
       </c>
       <c r="AA26">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3520,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -3537,79 +3528,79 @@
         <v>45091</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G27">
-        <v>3.33</v>
+        <v>1.13</v>
       </c>
       <c r="H27">
-        <v>3.05</v>
+        <v>6.5</v>
       </c>
       <c r="I27">
-        <v>2.22</v>
+        <v>15</v>
       </c>
       <c r="J27">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K27">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="L27">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="M27">
-        <v>2.45</v>
+        <v>4.25</v>
       </c>
       <c r="N27">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="O27">
-        <v>1.51</v>
+        <v>2.31</v>
       </c>
       <c r="P27">
+        <v>1.22</v>
+      </c>
+      <c r="Q27">
+        <v>3.75</v>
+      </c>
+      <c r="R27">
+        <v>2.6</v>
+      </c>
+      <c r="S27">
+        <v>1.41</v>
+      </c>
+      <c r="T27">
         <v>1.01</v>
       </c>
-      <c r="Q27">
-        <v>1.52</v>
-      </c>
-      <c r="R27">
-        <v>2.07</v>
-      </c>
-      <c r="S27">
-        <v>1.72</v>
-      </c>
-      <c r="T27">
-        <v>1.59</v>
-      </c>
       <c r="U27">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="V27">
-        <v>1.28</v>
+        <v>5.45</v>
       </c>
       <c r="W27">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="X27">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="Z27">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="AA27">
-        <v>3.09</v>
+        <v>2.72</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3627,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -3644,31 +3635,31 @@
         <v>45091</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G28">
-        <v>2.76</v>
+        <v>3.09</v>
       </c>
       <c r="H28">
-        <v>3.16</v>
+        <v>3.06</v>
       </c>
       <c r="I28">
-        <v>2.45</v>
+        <v>2.13</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="L28">
         <v>1.36</v>
@@ -3677,46 +3668,46 @@
         <v>2.79</v>
       </c>
       <c r="N28">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="O28">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="P28">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="Q28">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R28">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T28">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U28">
         <v>1.31</v>
       </c>
       <c r="V28">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="Y28">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="Z28">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="AA28">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3734,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3751,79 +3742,79 @@
         <v>45091</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G29">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="H29">
-        <v>3.9</v>
+        <v>3.12</v>
       </c>
       <c r="I29">
-        <v>6.24</v>
+        <v>4.66</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="M29">
-        <v>2.98</v>
+        <v>2.55</v>
       </c>
       <c r="N29">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="O29">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="P29">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="Q29">
-        <v>2.69</v>
+        <v>2.38</v>
       </c>
       <c r="R29">
-        <v>2.09</v>
+        <v>2.21</v>
       </c>
       <c r="S29">
         <v>1.63</v>
       </c>
       <c r="T29">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="U29">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="V29">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Y29">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="Z29">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="AA29">
-        <v>3.62</v>
+        <v>3.15</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3841,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -3858,16 +3849,16 @@
         <v>45091</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3965,79 +3956,79 @@
         <v>45091</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G31">
-        <v>2.5</v>
+        <v>1.51</v>
       </c>
       <c r="H31">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I31">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="J31">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="L31">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="M31">
-        <v>2.55</v>
+        <v>2.98</v>
       </c>
       <c r="N31">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="O31">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="P31">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="Q31">
-        <v>2.38</v>
+        <v>2.69</v>
       </c>
       <c r="R31">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="S31">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="T31">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="U31">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>2.39</v>
       </c>
       <c r="W31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="Z31">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AA31">
-        <v>3.15</v>
+        <v>3.62</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4055,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -4072,79 +4063,79 @@
         <v>45091</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W32">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="X32">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="Y32">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="Z32">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AA32">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4179,79 +4170,79 @@
         <v>45091</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G33">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="H33">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I33">
-        <v>3.89</v>
+        <v>4.75</v>
       </c>
       <c r="J33">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K33">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="L33">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="N33">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="P33">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q33">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S33">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T33">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="U33">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="V33">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="W33">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X33">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="Y33">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="Z33">
-        <v>1.41</v>
+        <v>2.31</v>
       </c>
       <c r="AA33">
-        <v>3.1</v>
+        <v>4.41</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4269,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH33">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4280,7 +4271,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
         <v>45091</v>
@@ -4289,105 +4280,105 @@
         <v>46</v>
       </c>
       <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34">
+        <v>1.3</v>
+      </c>
+      <c r="H34">
+        <v>5.25</v>
+      </c>
+      <c r="I34">
         <v>8</v>
       </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34">
+      <c r="J34">
+        <v>1.03</v>
+      </c>
+      <c r="K34">
+        <v>11</v>
+      </c>
+      <c r="L34">
+        <v>1.18</v>
+      </c>
+      <c r="M34">
+        <v>4.5</v>
+      </c>
+      <c r="N34">
+        <v>1.64</v>
+      </c>
+      <c r="O34">
+        <v>2.12</v>
+      </c>
+      <c r="P34">
+        <v>1.29</v>
+      </c>
+      <c r="Q34">
+        <v>3.5</v>
+      </c>
+      <c r="R34">
+        <v>1.95</v>
+      </c>
+      <c r="S34">
+        <v>1.8</v>
+      </c>
+      <c r="T34">
+        <v>1.03</v>
+      </c>
+      <c r="U34">
         <v>1.11</v>
       </c>
-      <c r="H34">
-        <v>7.7</v>
-      </c>
-      <c r="I34">
-        <v>20</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>1.57</v>
-      </c>
-      <c r="O34">
-        <v>2.19</v>
-      </c>
-      <c r="P34">
+      <c r="V34">
+        <v>3.25</v>
+      </c>
+      <c r="W34">
+        <v>1.5</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1.62</v>
+      </c>
+      <c r="Z34">
+        <v>1.36</v>
+      </c>
+      <c r="AA34">
+        <v>2.98</v>
+      </c>
+      <c r="AB34">
+        <v>1.42</v>
+      </c>
+      <c r="AC34">
+        <v>7.9</v>
+      </c>
+      <c r="AD34">
+        <v>3.86</v>
+      </c>
+      <c r="AE34">
         <v>1.22</v>
       </c>
-      <c r="Q34">
-        <v>3.75</v>
-      </c>
-      <c r="R34">
-        <v>2.54</v>
-      </c>
-      <c r="S34">
-        <v>1.43</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>1.05</v>
-      </c>
-      <c r="V34">
-        <v>5.45</v>
-      </c>
-      <c r="W34">
-        <v>2.5</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>1.63</v>
-      </c>
-      <c r="Z34">
-        <v>1.09</v>
-      </c>
-      <c r="AA34">
-        <v>2.72</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>45091</v>
@@ -4399,97 +4390,97 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G35">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I35">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="J35">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="O35">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="P35">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R35">
+        <v>1.68</v>
+      </c>
+      <c r="S35">
+        <v>2.1</v>
+      </c>
+      <c r="T35">
+        <v>1.28</v>
+      </c>
+      <c r="U35">
+        <v>1.22</v>
+      </c>
+      <c r="V35">
+        <v>1.68</v>
+      </c>
+      <c r="W35">
+        <v>1.86</v>
+      </c>
+      <c r="X35">
+        <v>1.67</v>
+      </c>
+      <c r="Y35">
+        <v>1.51</v>
+      </c>
+      <c r="Z35">
+        <v>1.81</v>
+      </c>
+      <c r="AA35">
+        <v>3.32</v>
+      </c>
+      <c r="AB35">
+        <v>1.85</v>
+      </c>
+      <c r="AC35">
+        <v>7.4</v>
+      </c>
+      <c r="AD35">
+        <v>2.42</v>
+      </c>
+      <c r="AE35">
+        <v>1.25</v>
+      </c>
+      <c r="AF35">
+        <v>1.5</v>
+      </c>
+      <c r="AG35">
         <v>1.95</v>
       </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>1.03</v>
-      </c>
-      <c r="U35">
-        <v>1.11</v>
-      </c>
-      <c r="V35">
-        <v>3.25</v>
-      </c>
-      <c r="W35">
-        <v>1.5</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>1.62</v>
-      </c>
-      <c r="Z35">
-        <v>1.36</v>
-      </c>
-      <c r="AA35">
-        <v>2.98</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>1.78</v>
-      </c>
       <c r="AH35">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4506,203 +4497,96 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G36">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="H36">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I36">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="O36">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="P36">
+        <v>1.29</v>
+      </c>
+      <c r="Q36">
+        <v>3.5</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>1.07</v>
+      </c>
+      <c r="U36">
+        <v>1.15</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>2.43</v>
+      </c>
+      <c r="X36">
+        <v>0.25</v>
+      </c>
+      <c r="Y36">
+        <v>2.06</v>
+      </c>
+      <c r="Z36">
         <v>1.36</v>
       </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-      <c r="R36">
+      <c r="AA36">
+        <v>3.42</v>
+      </c>
+      <c r="AB36">
+        <v>1.23</v>
+      </c>
+      <c r="AC36">
+        <v>11</v>
+      </c>
+      <c r="AD36">
+        <v>5.1</v>
+      </c>
+      <c r="AE36">
+        <v>1.13</v>
+      </c>
+      <c r="AF36">
+        <v>1.33</v>
+      </c>
+      <c r="AG36">
         <v>1.68</v>
       </c>
-      <c r="S36">
-        <v>2.1</v>
-      </c>
-      <c r="T36">
-        <v>1.28</v>
-      </c>
-      <c r="U36">
-        <v>1.22</v>
-      </c>
-      <c r="V36">
-        <v>1.68</v>
-      </c>
-      <c r="W36">
-        <v>1.86</v>
-      </c>
-      <c r="X36">
-        <v>1.67</v>
-      </c>
-      <c r="Y36">
-        <v>1.51</v>
-      </c>
-      <c r="Z36">
-        <v>1.81</v>
-      </c>
-      <c r="AA36">
-        <v>3.32</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
       <c r="AH36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="2">
-        <v>45091</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37">
-        <v>1.33</v>
-      </c>
-      <c r="H37">
-        <v>4.75</v>
-      </c>
-      <c r="I37">
-        <v>8</v>
-      </c>
-      <c r="J37">
-        <v>1.03</v>
-      </c>
-      <c r="K37">
-        <v>13</v>
-      </c>
-      <c r="L37">
-        <v>1.22</v>
-      </c>
-      <c r="M37">
-        <v>4.2</v>
-      </c>
-      <c r="N37">
-        <v>1.61</v>
-      </c>
-      <c r="O37">
-        <v>2.1</v>
-      </c>
-      <c r="P37">
-        <v>1.29</v>
-      </c>
-      <c r="Q37">
-        <v>3.5</v>
-      </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>1.07</v>
-      </c>
-      <c r="U37">
-        <v>1.15</v>
-      </c>
-      <c r="V37">
-        <v>3</v>
-      </c>
-      <c r="W37">
-        <v>2.43</v>
-      </c>
-      <c r="X37">
-        <v>0.25</v>
-      </c>
-      <c r="Y37">
-        <v>2.06</v>
-      </c>
-      <c r="Z37">
-        <v>1.36</v>
-      </c>
-      <c r="AA37">
-        <v>3.42</v>
-      </c>
-      <c r="AB37">
-        <v>1.23</v>
-      </c>
-      <c r="AC37">
-        <v>11</v>
-      </c>
-      <c r="AD37">
-        <v>5.1</v>
-      </c>
-      <c r="AE37">
-        <v>1.13</v>
-      </c>
-      <c r="AF37">
-        <v>1.33</v>
-      </c>
-      <c r="AG37">
-        <v>1.68</v>
-      </c>
-      <c r="AH37">
-        <v>2</v>
-      </c>
-      <c r="AI37">
         <v>2.7</v>
       </c>
     </row>
